--- a/2 курс/4 семестр/Matstat/lab3/lab3.xlsx
+++ b/2 курс/4 семестр/Matstat/lab3/lab3.xlsx
@@ -1,32 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FF8E980-3229-4172-871A-9FD8345DBCA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист4" sheetId="4" r:id="rId2"/>
     <sheet name="Лист2" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Автор</author>
   </authors>
   <commentList>
-    <comment ref="G6" authorId="0" shapeId="0">
+    <comment ref="G6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -46,12 +58,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Автор</author>
   </authors>
   <commentList>
-    <comment ref="Z21" authorId="0" shapeId="0">
+    <comment ref="Z21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -71,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="67">
   <si>
     <t>X</t>
   </si>
@@ -241,13 +253,58 @@
   <si>
     <t>.=</t>
   </si>
+  <si>
+    <t>xi</t>
+  </si>
+  <si>
+    <t>(xi-    )^2</t>
+  </si>
+  <si>
+    <t>yxi</t>
+  </si>
+  <si>
+    <t>(yxi - yi)^2</t>
+  </si>
+  <si>
+    <t>Сумм</t>
+  </si>
+  <si>
+    <t>s^2</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>sy</t>
+  </si>
+  <si>
+    <t>Интервал:</t>
+  </si>
+  <si>
+    <t>Низ</t>
+  </si>
+  <si>
+    <t>Верх</t>
+  </si>
+  <si>
+    <t>отклонение a</t>
+  </si>
+  <si>
+    <t>&lt;a&lt;</t>
+  </si>
+  <si>
+    <t>отклонение b</t>
+  </si>
+  <si>
+    <t>&lt;b&lt;</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -296,7 +353,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -342,12 +399,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -484,7 +535,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -501,16 +552,43 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -519,28 +597,13 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -552,27 +615,20 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -614,7 +670,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -675,11 +737,17 @@
       <xdr:rowOff>9939</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="465512" cy="186141"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="4" name="TextBox 3"/>
+            <xdr:cNvPr id="4" name="TextBox 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -712,6 +780,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -801,7 +870,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3"/>
@@ -859,11 +928,17 @@
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="409575" cy="295275"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="5" name="TextBox 4"/>
+            <xdr:cNvPr id="5" name="TextBox 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -896,6 +971,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -954,7 +1030,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4"/>
@@ -1042,11 +1118,17 @@
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="409575" cy="295275"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="6" name="TextBox 5"/>
+            <xdr:cNvPr id="6" name="TextBox 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -1079,6 +1161,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -1137,7 +1220,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="TextBox 5"/>
@@ -1225,11 +1308,17 @@
       <xdr:rowOff>9939</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="470770" cy="186141"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="7" name="TextBox 6"/>
+            <xdr:cNvPr id="7" name="TextBox 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -1262,6 +1351,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -1351,7 +1441,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="TextBox 6"/>
@@ -1413,12 +1503,18 @@
       <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="8" name="TextBox 7"/>
+            <xdr:cNvPr id="8" name="TextBox 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3733800" y="10229850"/>
+              <a:off x="3898900" y="10197646"/>
               <a:ext cx="111248" cy="172227"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1446,6 +1542,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -1481,12 +1578,18 @@
       <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="8" name="TextBox 7"/>
+            <xdr:cNvPr id="8" name="TextBox 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3733800" y="10229850"/>
+              <a:off x="3898900" y="10197646"/>
               <a:ext cx="111248" cy="172227"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1514,6 +1617,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
@@ -1542,11 +1646,17 @@
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="113236" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="9" name="TextBox 8"/>
+            <xdr:cNvPr id="9" name="TextBox 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -1579,6 +1689,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -1611,7 +1722,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9" name="TextBox 8"/>
@@ -1675,11 +1786,17 @@
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="188320" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10" name="TextBox 9"/>
+            <xdr:cNvPr id="10" name="TextBox 9">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -1712,6 +1829,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -1744,7 +1862,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="10" name="TextBox 9"/>
@@ -1814,11 +1932,17 @@
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="135230" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="11" name="TextBox 10"/>
+            <xdr:cNvPr id="11" name="TextBox 10">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -1851,6 +1975,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -1890,7 +2015,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="11" name="TextBox 10"/>
@@ -1954,11 +2079,17 @@
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="174214" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="13" name="TextBox 12"/>
+            <xdr:cNvPr id="13" name="TextBox 12">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -1991,6 +2122,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -2030,7 +2162,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="13" name="TextBox 12"/>
@@ -2100,11 +2232,17 @@
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="178318" cy="182935"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="14" name="TextBox 13"/>
+            <xdr:cNvPr id="14" name="TextBox 13">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -2137,6 +2275,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -2176,7 +2315,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="14" name="TextBox 13"/>
@@ -2246,11 +2385,17 @@
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="180114" cy="188641"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="15" name="TextBox 14"/>
+            <xdr:cNvPr id="15" name="TextBox 14">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -2283,6 +2428,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -2334,7 +2480,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="15" name="TextBox 14"/>
@@ -2416,11 +2562,17 @@
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="183127" cy="188641"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="16" name="TextBox 15"/>
+            <xdr:cNvPr id="16" name="TextBox 15">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -2453,6 +2605,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -2504,7 +2657,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="16" name="TextBox 15"/>
@@ -2586,11 +2739,17 @@
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="244875" cy="182935"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="18" name="TextBox 17"/>
+            <xdr:cNvPr id="18" name="TextBox 17">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -2623,6 +2782,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -2662,7 +2822,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="18" name="TextBox 17"/>
@@ -2732,11 +2892,17 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="245132" cy="182935"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="20" name="TextBox 19"/>
+            <xdr:cNvPr id="20" name="TextBox 19">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -2769,6 +2935,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -2808,7 +2975,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="20" name="TextBox 19"/>
@@ -2878,11 +3045,17 @@
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="237822" cy="182935"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="21" name="TextBox 20"/>
+            <xdr:cNvPr id="21" name="TextBox 20">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -2915,6 +3088,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -2954,7 +3128,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="21" name="TextBox 20"/>
@@ -3024,11 +3198,17 @@
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="238079" cy="182935"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="22" name="TextBox 21"/>
+            <xdr:cNvPr id="22" name="TextBox 21">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -3061,6 +3241,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -3100,7 +3281,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="22" name="TextBox 21"/>
@@ -3177,7 +3358,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="Рисунок 22"/>
+        <xdr:cNvPr id="23" name="Рисунок 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3208,11 +3395,17 @@
       <xdr:rowOff>35858</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="191270" cy="175369"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="24" name="TextBox 23"/>
+            <xdr:cNvPr id="24" name="TextBox 23">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -3245,6 +3438,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -3284,7 +3478,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="24" name="TextBox 23"/>
@@ -3346,6 +3540,153 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>408559</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>28450</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="111248" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="12" name="TextBox 11">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12A2B89F-C540-4C25-94F3-B94916CF3476}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="408559" y="21512617"/>
+              <a:ext cx="111248" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:acc>
+                      <m:accPr>
+                        <m:chr m:val="̅"/>
+                        <m:ctrlPr>
+                          <a:rPr lang="ru-RU" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:accPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑥</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:acc>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="12" name="TextBox 11">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12A2B89F-C540-4C25-94F3-B94916CF3476}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="408559" y="21512617"/>
+              <a:ext cx="111248" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑥</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> ̅</a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3359,11 +3700,17 @@
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="409575" cy="295275"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="2" name="TextBox 1"/>
+            <xdr:cNvPr id="2" name="TextBox 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -3396,6 +3743,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -3454,7 +3802,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1"/>
@@ -3542,11 +3890,17 @@
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="409575" cy="295275"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="3" name="TextBox 2"/>
+            <xdr:cNvPr id="3" name="TextBox 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -3579,6 +3933,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -3637,7 +3992,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2"/>
@@ -3982,20 +4337,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N108"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N123"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J137" sqref="J137"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="19" width="12.7109375" style="3" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="19" width="12.7265625" style="3" customWidth="1"/>
+    <col min="20" max="16384" width="9.1796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="31" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -4016,7 +4371,7 @@
       </c>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
         <v>20</v>
       </c>
@@ -4040,7 +4395,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
         <v>30</v>
       </c>
@@ -4064,7 +4419,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>40</v>
       </c>
@@ -4088,7 +4443,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <v>50</v>
       </c>
@@ -4112,7 +4467,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="5"/>
       <c r="B6" s="5">
         <f>SUM(B2:B5)</f>
@@ -4134,26 +4489,26 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="7">
         <f>SUM(B6:F6)</f>
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="7"/>
+      <c r="B10" s="25"/>
       <c r="C10" s="5">
         <v>20</v>
       </c>
@@ -4167,76 +4522,76 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8">
+      <c r="B11" s="25"/>
+      <c r="C11" s="6">
         <f>(B2*B1+C2*C1+D2*D1+E2*E1+F2*F1)/SUM(B2:F2)</f>
         <v>3.8</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="6">
         <f>(B3*B1+C3*C1+D3*D1+E3*E1+F3*F1)/SUM(B3:F3)</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="6">
         <f>(B4*B1+C4*C1+D4*D1+E4*E1+F4*F1)/SUM(B4:F4)</f>
         <v>6.3142857142857141</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="6">
         <f>(B5*B1+C5*C1+D5*D1+E5*E1+F5*F1)/SUM(B5:F5)</f>
         <v>7.9090909090909092</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-    </row>
-    <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="20" t="s">
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+    </row>
+    <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B42" s="21"/>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="21"/>
-      <c r="H42" s="22"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="18" t="s">
+      <c r="B42" s="27"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="28"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A43" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B43" s="18"/>
-      <c r="C43" s="19">
+      <c r="B43" s="23"/>
+      <c r="C43" s="11">
         <v>20</v>
       </c>
-      <c r="D43" s="19">
+      <c r="D43" s="11">
         <v>30</v>
       </c>
-      <c r="E43" s="19">
+      <c r="E43" s="11">
         <v>40</v>
       </c>
-      <c r="F43" s="19">
+      <c r="F43" s="11">
         <v>50</v>
       </c>
-      <c r="G43" s="19"/>
-      <c r="H43" s="15"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="13"/>
-      <c r="B44" s="13"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="9"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A44" s="24"/>
+      <c r="B44" s="24"/>
       <c r="C44" s="5">
         <f>A2*G2</f>
         <v>400</v>
@@ -4253,27 +4608,21 @@
         <f>A5*G5</f>
         <v>1100</v>
       </c>
-      <c r="G44" s="14">
+      <c r="G44" s="8">
         <f>SUM(C44:F44)/G6</f>
         <v>36.629213483146067</v>
       </c>
-      <c r="H44" s="15"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="16"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="17"/>
-      <c r="H45" s="15"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="7" t="s">
+      <c r="H44" s="9"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A45" s="10"/>
+      <c r="H45" s="9"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A46" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B46" s="7"/>
+      <c r="B46" s="25"/>
       <c r="C46" s="5">
         <v>1</v>
       </c>
@@ -4291,9 +4640,9 @@
       </c>
       <c r="H46" s="5"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="13"/>
-      <c r="B47" s="13"/>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A47" s="24"/>
+      <c r="B47" s="24"/>
       <c r="C47" s="5">
         <f>B6*B1</f>
         <v>2</v>
@@ -4314,24 +4663,22 @@
         <f>F6*F1</f>
         <v>198</v>
       </c>
-      <c r="H47" s="14">
+      <c r="H47" s="8">
         <f>SUM(C47:G47)/G6</f>
         <v>5.6516853932584272</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="10" t="s">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A50" s="21"/>
+      <c r="B50" s="21"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A51" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B50" s="10"/>
-    </row>
-    <row r="51" spans="1:14" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A51" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="B51" s="24"/>
-      <c r="C51" s="24"/>
-      <c r="D51" s="23" t="s">
+      <c r="B51" s="30"/>
+      <c r="C51" s="30"/>
+      <c r="D51" s="12" t="s">
         <v>7</v>
       </c>
       <c r="E51" s="5"/>
@@ -4339,61 +4686,61 @@
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
       <c r="I51" s="5"/>
-      <c r="J51" s="26"/>
+      <c r="J51" s="14"/>
       <c r="K51" s="5"/>
       <c r="L51" s="5"/>
       <c r="M51" s="5"/>
       <c r="N51" s="5"/>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52" s="24"/>
-      <c r="B52" s="24"/>
-      <c r="C52" s="24"/>
-      <c r="D52" s="23" t="s">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A52" s="30"/>
+      <c r="B52" s="30"/>
+      <c r="C52" s="30"/>
+      <c r="D52" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E52" s="8">
+      <c r="E52" s="6">
         <f>G44</f>
         <v>36.629213483146067</v>
       </c>
-      <c r="F52" s="8">
+      <c r="F52" s="6">
         <f>H47</f>
         <v>5.6516853932584272</v>
       </c>
-      <c r="G52" s="8">
+      <c r="G52" s="6">
         <f>((A2^2)*G2+(A3^2)*G3+(A4^2)*G4+(A5^2)*G5)/G6</f>
         <v>1458.4269662921349</v>
       </c>
-      <c r="H52" s="8">
+      <c r="H52" s="6">
         <f>((B1^2)*B6+(C1^2)*C6+(D1^2)*D6+(E1^2)*E6+(F1^2)*F6)/G6</f>
         <v>37.853932584269664</v>
       </c>
-      <c r="I52" s="8">
+      <c r="I52" s="6">
         <f>SQRT(G52-(E52^2))</f>
         <v>10.804058769658985</v>
       </c>
-      <c r="J52" s="8">
+      <c r="J52" s="6">
         <f>SQRT(H52-(F52^2))</f>
         <v>2.4315395945571194</v>
       </c>
-      <c r="K52" s="8">
+      <c r="K52" s="6">
         <f>(B1*(A2*B2+A3*B3+A4*B4+A5*B5)+C1*(C2*A2+C3*A3+C4*A4+C5*A5)+D1*(D2*A2+D3*A3+D4*A4+D5*A5)+E1*(E2*A2+E3*A3+E4*A4+E5*A5)+F1*(F2*A2+F3*A3+F4*A4+F5*A5))/G6</f>
         <v>224.9438202247191</v>
       </c>
-      <c r="L52" s="8">
+      <c r="L52" s="6">
         <f>(K52-E52*F52)/(I52*J52)</f>
         <v>0.68240161705387437</v>
       </c>
-      <c r="M52" s="8">
+      <c r="M52" s="6">
         <f>L52*(J52/I52)</f>
         <v>0.15357992645468305</v>
       </c>
-      <c r="N52" s="8">
+      <c r="N52" s="6">
         <f>F52-M52*E52</f>
         <v>2.6173480423969941E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
@@ -4405,7 +4752,7 @@
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
       <c r="G54" s="5"/>
@@ -4414,37 +4761,37 @@
       <c r="J54" s="5"/>
       <c r="K54" s="5"/>
       <c r="L54" s="5"/>
-      <c r="M54" s="8">
+      <c r="M54" s="6">
         <f>L52*(I52/J52)</f>
         <v>3.0321147933037254</v>
       </c>
-      <c r="N54" s="8">
+      <c r="N54" s="6">
         <f>E52-M54*F52</f>
         <v>19.492654595148608</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56" s="11" t="s">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A56" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B56" s="11"/>
-      <c r="C56" s="11"/>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57" s="11" t="s">
+      <c r="B56" s="22"/>
+      <c r="C56" s="22"/>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A57" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B57" s="11"/>
-      <c r="C57" s="11"/>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="12" t="s">
+      <c r="B57" s="22"/>
+      <c r="C57" s="22"/>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A92" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B92" s="12"/>
-      <c r="C92" s="12"/>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B92" s="20"/>
+      <c r="C92" s="20"/>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" s="3" t="s">
         <v>0</v>
       </c>
@@ -4452,7 +4799,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" s="3">
         <v>35</v>
       </c>
@@ -4461,63 +4808,63 @@
         <v>5.4159999999999995</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="12" t="s">
+    <row r="97" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B97" s="12"/>
-      <c r="C97" s="12"/>
-      <c r="D97" s="12"/>
-      <c r="E97" s="12"/>
-      <c r="F97" s="12"/>
-    </row>
-    <row r="98" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B97" s="20"/>
+      <c r="C97" s="20"/>
+      <c r="D97" s="20"/>
+      <c r="E97" s="20"/>
+      <c r="F97" s="20"/>
+    </row>
+    <row r="98" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B98" s="25">
+      <c r="B98" s="13">
         <f>L52</f>
         <v>0.68240161705387437</v>
       </c>
-      <c r="C98" s="10" t="s">
+      <c r="C98" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="D98" s="10"/>
-      <c r="E98" s="10"/>
-      <c r="F98" s="10"/>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B99" s="25">
+      <c r="D98" s="21"/>
+      <c r="E98" s="21"/>
+      <c r="F98" s="21"/>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B99" s="13">
         <f>B98^2</f>
         <v>0.4656719669577426</v>
       </c>
-      <c r="C99" s="10" t="s">
+      <c r="C99" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="D99" s="10"/>
-      <c r="E99" s="10"/>
-      <c r="F99" s="10"/>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="12" t="s">
+      <c r="D99" s="21"/>
+      <c r="E99" s="21"/>
+      <c r="F99" s="21"/>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A102" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B102" s="12"/>
-      <c r="C102" s="12"/>
-      <c r="D102" s="12"/>
-      <c r="E102" s="12"/>
-      <c r="F102" s="12"/>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B102" s="20"/>
+      <c r="C102" s="20"/>
+      <c r="D102" s="20"/>
+      <c r="E102" s="20"/>
+      <c r="F102" s="20"/>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B103" s="25">
+      <c r="B103" s="13">
         <f>(B98*(SQRT(G6-2)))/(SQRT(1-(B98^2)))</f>
         <v>8.707544322916581</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104" s="3" t="s">
         <v>19</v>
       </c>
@@ -4525,35 +4872,218 @@
         <v>1.98</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="10" t="s">
+    <row r="105" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B105" s="10"/>
-      <c r="C105" s="10"/>
-      <c r="D105" s="10"/>
-      <c r="E105" s="10"/>
-      <c r="F105" s="10"/>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" s="12" t="s">
+      <c r="B105" s="21"/>
+      <c r="C105" s="21"/>
+      <c r="D105" s="21"/>
+      <c r="E105" s="21"/>
+      <c r="F105" s="21"/>
+    </row>
+    <row r="108" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A108" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B108" s="12"/>
-      <c r="C108" s="12"/>
-      <c r="D108" s="12"/>
-      <c r="E108" s="12"/>
-      <c r="F108" s="12"/>
+      <c r="B108" s="20"/>
+      <c r="C108" s="20"/>
+      <c r="D108" s="20"/>
+      <c r="E108" s="20"/>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A109" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B109" s="3">
+        <v>20</v>
+      </c>
+      <c r="C109" s="3">
+        <v>30</v>
+      </c>
+      <c r="D109" s="3">
+        <v>40</v>
+      </c>
+      <c r="E109" s="3">
+        <v>50</v>
+      </c>
+      <c r="F109" s="32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A110" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B110" s="3">
+        <f>(B109-36.629)^2</f>
+        <v>276.52364099999994</v>
+      </c>
+      <c r="C110" s="3">
+        <f t="shared" ref="C110:E110" si="2">(C109-36.629)^2</f>
+        <v>43.943640999999971</v>
+      </c>
+      <c r="D110" s="3">
+        <f t="shared" si="2"/>
+        <v>11.363641000000015</v>
+      </c>
+      <c r="E110" s="3">
+        <f t="shared" si="2"/>
+        <v>178.78364100000005</v>
+      </c>
+      <c r="F110" s="3">
+        <f>SUM(B110:E110)</f>
+        <v>510.61456399999997</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A111" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B111" s="3">
+        <f>0.154*B109+0.026</f>
+        <v>3.1059999999999999</v>
+      </c>
+      <c r="C111" s="3">
+        <f t="shared" ref="C111:E111" si="3">0.154*C109+0.026</f>
+        <v>4.6459999999999999</v>
+      </c>
+      <c r="D111" s="3">
+        <f t="shared" si="3"/>
+        <v>6.1859999999999999</v>
+      </c>
+      <c r="E111" s="3">
+        <f t="shared" si="3"/>
+        <v>7.726</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A112" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B112" s="3">
+        <f>(B111-3.8)^2</f>
+        <v>0.48163599999999995</v>
+      </c>
+      <c r="C112" s="3">
+        <f>(C111-2.6)^2</f>
+        <v>4.1861159999999993</v>
+      </c>
+      <c r="D112" s="3">
+        <f>(D111-6.3)^2</f>
+        <v>1.2995999999999973E-2</v>
+      </c>
+      <c r="E112" s="3">
+        <f>(E111-7.9)^2</f>
+        <v>3.0276000000000133E-2</v>
+      </c>
+      <c r="F112" s="3">
+        <f>SUM(B112:E112)</f>
+        <v>4.7110239999999992</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A114" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B114" s="3">
+        <f>F112/(G6-2)</f>
+        <v>5.4149701149425279E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A115" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B115" s="3">
+        <f>SQRT(B114)</f>
+        <v>0.23270088343069367</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A116" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B116" s="3">
+        <f>B115/SQRT(G6)</f>
+        <v>2.4666244311214242E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A117" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B118" s="3">
+        <f>F52-(B116*B104)</f>
+        <v>5.602846229522223</v>
+      </c>
+      <c r="C118" s="3">
+        <f>F52+(B116*B104)</f>
+        <v>5.7005245569946315</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="A120" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B120" s="3">
+        <f>B104*(SQRT(F112)/SQRT(F110))</f>
+        <v>0.19018499510647402</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A121" s="31"/>
+      <c r="B121" s="33">
+        <f>M52-B120</f>
+        <v>-3.6605068651790973E-2</v>
+      </c>
+      <c r="C121" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="D121" s="33">
+        <f>M52+B120</f>
+        <v>0.34376492156115707</v>
+      </c>
+      <c r="E121" s="31"/>
+      <c r="F121" s="31"/>
+    </row>
+    <row r="122" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="A122" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B122" s="3">
+        <f>B104*SQRT(G52)</f>
+        <v>75.614926295353129</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B123" s="13">
+        <f>N52-B122</f>
+        <v>-75.588752814929165</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D123" s="13">
+        <f>N52+B122</f>
+        <v>75.641099775777093</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A102:F102"/>
-    <mergeCell ref="A105:F105"/>
-    <mergeCell ref="A108:F108"/>
-    <mergeCell ref="A92:C92"/>
-    <mergeCell ref="C98:F98"/>
-    <mergeCell ref="A97:F97"/>
-    <mergeCell ref="C99:F99"/>
+    <mergeCell ref="A42:H42"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A14:I14"/>
     <mergeCell ref="A50:B50"/>
     <mergeCell ref="A51:C52"/>
     <mergeCell ref="A56:C56"/>
@@ -4562,11 +5092,13 @@
     <mergeCell ref="A44:B44"/>
     <mergeCell ref="A46:B46"/>
     <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A42:H42"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A14:I14"/>
+    <mergeCell ref="A102:F102"/>
+    <mergeCell ref="A105:F105"/>
+    <mergeCell ref="A92:C92"/>
+    <mergeCell ref="C98:F98"/>
+    <mergeCell ref="A97:F97"/>
+    <mergeCell ref="C99:F99"/>
+    <mergeCell ref="A108:E108"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4576,38 +5108,38 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I113"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.5703125" customWidth="1"/>
-    <col min="2" max="2" width="39.7109375" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" customWidth="1"/>
-    <col min="7" max="7" width="25.5703125" customWidth="1"/>
-    <col min="8" max="8" width="28.42578125" customWidth="1"/>
-    <col min="9" max="9" width="19.7109375" customWidth="1"/>
-    <col min="10" max="10" width="17.28515625" customWidth="1"/>
+    <col min="1" max="1" width="24.54296875" customWidth="1"/>
+    <col min="2" max="2" width="39.7265625" customWidth="1"/>
+    <col min="3" max="3" width="21.453125" customWidth="1"/>
+    <col min="4" max="4" width="17.81640625" customWidth="1"/>
+    <col min="5" max="5" width="18.54296875" customWidth="1"/>
+    <col min="6" max="6" width="20.7265625" customWidth="1"/>
+    <col min="7" max="7" width="25.54296875" customWidth="1"/>
+    <col min="8" max="8" width="28.453125" customWidth="1"/>
+    <col min="9" max="9" width="19.7265625" customWidth="1"/>
+    <col min="10" max="10" width="17.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="30"/>
+      <c r="B3" s="17"/>
       <c r="E3">
         <v>-0.37</v>
       </c>
@@ -4615,209 +5147,205 @@
         <v>-1.03</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="27">
+      <c r="B4">
         <v>0.68240161705387425</v>
       </c>
-      <c r="E4" s="31">
+      <c r="E4" s="18">
         <f>_xlfn.NORM.S.DIST(E3, 1)-0.5</f>
         <v>-0.14430875480054678</v>
       </c>
-      <c r="F4" s="31">
+      <c r="F4" s="18">
         <f>_xlfn.NORM.S.DIST(F3, 1)-0.5</f>
         <v>-0.34849499721165633</v>
       </c>
       <c r="G4" t="s">
         <v>51</v>
       </c>
-      <c r="H4" s="32">
+      <c r="H4" s="19">
         <f>E4-F4</f>
         <v>0.20418624241110955</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="27">
+      <c r="B5">
         <v>0.46567196695774243</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="27">
+      <c r="B6">
         <v>0.4595302654285211</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="27">
+      <c r="B7">
         <v>1.7977144228861124</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="28" t="s">
+    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="28">
+      <c r="B8" s="15">
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
-      <c r="B11" s="29" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="16"/>
+      <c r="B11" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="29" t="s">
+      <c r="D11" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="29" t="s">
+      <c r="E11" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="29" t="s">
+      <c r="F11" s="16" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="27" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="27">
+      <c r="B12">
         <v>1</v>
       </c>
-      <c r="C12" s="27">
+      <c r="C12">
         <v>245.0376354670226</v>
       </c>
-      <c r="D12" s="27">
+      <c r="D12">
         <v>245.0376354670226</v>
       </c>
-      <c r="E12" s="27">
+      <c r="E12">
         <v>75.821328135556683</v>
       </c>
-      <c r="F12" s="27">
+      <c r="F12">
         <v>1.7828115028506879E-13</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="27" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="27">
+      <c r="B13">
         <v>87</v>
       </c>
-      <c r="C13" s="27">
+      <c r="C13">
         <v>281.16461172398908</v>
       </c>
-      <c r="D13" s="27">
+      <c r="D13">
         <v>3.2317771462527483</v>
       </c>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-    </row>
-    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="28" t="s">
+    </row>
+    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="28">
+      <c r="B14" s="15">
         <v>88</v>
       </c>
-      <c r="C14" s="28">
+      <c r="C14" s="15">
         <v>526.20224719101168</v>
       </c>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-    </row>
-    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="29"/>
-      <c r="B16" s="29" t="s">
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+    </row>
+    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="16"/>
+      <c r="B16" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="29" t="s">
+      <c r="D16" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="29" t="s">
+      <c r="E16" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="29" t="s">
+      <c r="F16" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="G16" s="29" t="s">
+      <c r="G16" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="27" t="s">
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="27">
+      <c r="B17">
         <v>2.617348042395129E-2</v>
       </c>
-      <c r="C17" s="27">
+      <c r="C17">
         <v>0.67356746955379798</v>
       </c>
-      <c r="D17" s="27">
+      <c r="D17">
         <v>3.8857993604248443E-2</v>
       </c>
-      <c r="E17" s="27">
+      <c r="E17">
         <v>0.96909263713372373</v>
       </c>
-      <c r="F17" s="27">
+      <c r="F17">
         <v>-1.3126148002701743</v>
       </c>
-      <c r="G17" s="27">
+      <c r="G17">
         <v>1.3649617611180769</v>
       </c>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-    </row>
-    <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="28" t="s">
+    </row>
+    <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="28">
+      <c r="B18" s="15">
         <v>0.15357992645468355</v>
       </c>
-      <c r="C18" s="28">
+      <c r="C18" s="15">
         <v>1.7637570451463625E-2</v>
       </c>
-      <c r="D18" s="28">
+      <c r="D18" s="15">
         <v>8.7075443229165934</v>
       </c>
-      <c r="E18" s="28">
+      <c r="E18" s="15">
         <v>1.7828115028505407E-13</v>
       </c>
-      <c r="F18" s="28">
+      <c r="F18" s="15">
         <v>0.11852334535824369</v>
       </c>
-      <c r="G18" s="28">
+      <c r="G18" s="15">
         <v>0.18863650755112341</v>
       </c>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>44</v>
       </c>
@@ -4825,1809 +5353,1809 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="29" t="s">
+    <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="29" t="s">
+      <c r="B24" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="29" t="s">
+      <c r="C24" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="D24" s="29" t="s">
+      <c r="D24" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="F24" s="29" t="s">
+      <c r="F24" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="G24" s="29" t="s">
+      <c r="G24" s="16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="27">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25">
         <v>1</v>
       </c>
-      <c r="B25" s="27">
+      <c r="B25">
         <v>3.0977720095176222</v>
       </c>
-      <c r="C25" s="27">
+      <c r="C25">
         <v>-9.7772009517622216E-2</v>
       </c>
-      <c r="D25" s="27">
+      <c r="D25">
         <v>-5.4698516572843657E-2</v>
       </c>
-      <c r="F25" s="27">
+      <c r="F25">
         <v>0.5617977528089888</v>
       </c>
-      <c r="G25" s="27">
+      <c r="G25">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="27">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26">
         <v>2</v>
       </c>
-      <c r="B26" s="27">
+      <c r="B26">
         <v>3.0977720095176222</v>
       </c>
-      <c r="C26" s="27">
+      <c r="C26">
         <v>-9.7772009517622216E-2</v>
       </c>
-      <c r="D26" s="27">
+      <c r="D26">
         <v>-5.4698516572843657E-2</v>
       </c>
-      <c r="F26" s="27">
+      <c r="F26">
         <v>1.6853932584269664</v>
       </c>
-      <c r="G26" s="27">
+      <c r="G26">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="27">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27">
         <v>3</v>
       </c>
-      <c r="B27" s="27">
+      <c r="B27">
         <v>3.0977720095176222</v>
       </c>
-      <c r="C27" s="27">
+      <c r="C27">
         <v>-9.7772009517622216E-2</v>
       </c>
-      <c r="D27" s="27">
+      <c r="D27">
         <v>-5.4698516572843657E-2</v>
       </c>
-      <c r="F27" s="27">
+      <c r="F27">
         <v>2.808988764044944</v>
       </c>
-      <c r="G27" s="27">
+      <c r="G27">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="27">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28">
         <v>4</v>
       </c>
-      <c r="B28" s="27">
+      <c r="B28">
         <v>3.0977720095176222</v>
       </c>
-      <c r="C28" s="27">
+      <c r="C28">
         <v>-9.7772009517622216E-2</v>
       </c>
-      <c r="D28" s="27">
+      <c r="D28">
         <v>-5.4698516572843657E-2</v>
       </c>
-      <c r="F28" s="27">
+      <c r="F28">
         <v>3.9325842696629216</v>
       </c>
-      <c r="G28" s="27">
+      <c r="G28">
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="27">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29">
         <v>5</v>
       </c>
-      <c r="B29" s="27">
+      <c r="B29">
         <v>3.0977720095176222</v>
       </c>
-      <c r="C29" s="27">
+      <c r="C29">
         <v>-9.7772009517622216E-2</v>
       </c>
-      <c r="D29" s="27">
+      <c r="D29">
         <v>-5.4698516572843657E-2</v>
       </c>
-      <c r="F29" s="27">
+      <c r="F29">
         <v>5.0561797752808992</v>
       </c>
-      <c r="G29" s="27">
+      <c r="G29">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="27">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A30">
         <v>6</v>
       </c>
-      <c r="B30" s="27">
+      <c r="B30">
         <v>3.0977720095176222</v>
       </c>
-      <c r="C30" s="27">
+      <c r="C30">
         <v>-9.7772009517622216E-2</v>
       </c>
-      <c r="D30" s="27">
+      <c r="D30">
         <v>-5.4698516572843657E-2</v>
       </c>
-      <c r="F30" s="27">
+      <c r="F30">
         <v>6.1797752808988768</v>
       </c>
-      <c r="G30" s="27">
+      <c r="G30">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="27">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31">
         <v>7</v>
       </c>
-      <c r="B31" s="27">
+      <c r="B31">
         <v>3.0977720095176222</v>
       </c>
-      <c r="C31" s="27">
+      <c r="C31">
         <v>-9.7772009517622216E-2</v>
       </c>
-      <c r="D31" s="27">
+      <c r="D31">
         <v>-5.4698516572843657E-2</v>
       </c>
-      <c r="F31" s="27">
+      <c r="F31">
         <v>7.3033707865168545</v>
       </c>
-      <c r="G31" s="27">
+      <c r="G31">
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="27">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A32">
         <v>8</v>
       </c>
-      <c r="B32" s="27">
+      <c r="B32">
         <v>3.0977720095176222</v>
       </c>
-      <c r="C32" s="27">
+      <c r="C32">
         <v>-9.7772009517622216E-2</v>
       </c>
-      <c r="D32" s="27">
+      <c r="D32">
         <v>-5.4698516572843657E-2</v>
       </c>
-      <c r="F32" s="27">
+      <c r="F32">
         <v>8.4269662921348321</v>
       </c>
-      <c r="G32" s="27">
+      <c r="G32">
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="27">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33">
         <v>9</v>
       </c>
-      <c r="B33" s="27">
+      <c r="B33">
         <v>3.0977720095176222</v>
       </c>
-      <c r="C33" s="27">
+      <c r="C33">
         <v>-9.7772009517622216E-2</v>
       </c>
-      <c r="D33" s="27">
+      <c r="D33">
         <v>-5.4698516572843657E-2</v>
       </c>
-      <c r="F33" s="27">
+      <c r="F33">
         <v>9.5505617977528097</v>
       </c>
-      <c r="G33" s="27">
+      <c r="G33">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="27">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34">
         <v>10</v>
       </c>
-      <c r="B34" s="27">
+      <c r="B34">
         <v>3.0977720095176222</v>
       </c>
-      <c r="C34" s="27">
+      <c r="C34">
         <v>-9.7772009517622216E-2</v>
       </c>
-      <c r="D34" s="27">
+      <c r="D34">
         <v>-5.4698516572843657E-2</v>
       </c>
-      <c r="F34" s="27">
+      <c r="F34">
         <v>10.674157303370787</v>
       </c>
-      <c r="G34" s="27">
+      <c r="G34">
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="27">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35">
         <v>11</v>
       </c>
-      <c r="B35" s="27">
+      <c r="B35">
         <v>3.0977720095176222</v>
       </c>
-      <c r="C35" s="27">
+      <c r="C35">
         <v>-9.7772009517622216E-2</v>
       </c>
-      <c r="D35" s="27">
+      <c r="D35">
         <v>-5.4698516572843657E-2</v>
       </c>
-      <c r="F35" s="27">
+      <c r="F35">
         <v>11.797752808988765</v>
       </c>
-      <c r="G35" s="27">
+      <c r="G35">
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="27">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36">
         <v>12</v>
       </c>
-      <c r="B36" s="27">
+      <c r="B36">
         <v>3.0977720095176222</v>
       </c>
-      <c r="C36" s="27">
+      <c r="C36">
         <v>-9.7772009517622216E-2</v>
       </c>
-      <c r="D36" s="27">
+      <c r="D36">
         <v>-5.4698516572843657E-2</v>
       </c>
-      <c r="F36" s="27">
+      <c r="F36">
         <v>12.921348314606742</v>
       </c>
-      <c r="G36" s="27">
+      <c r="G36">
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="27">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37">
         <v>13</v>
       </c>
-      <c r="B37" s="27">
+      <c r="B37">
         <v>3.0977720095176222</v>
       </c>
-      <c r="C37" s="27">
+      <c r="C37">
         <v>1.9022279904823778</v>
       </c>
-      <c r="D37" s="27">
+      <c r="D37">
         <v>1.0642007848266006</v>
       </c>
-      <c r="F37" s="27">
+      <c r="F37">
         <v>14.04494382022472</v>
       </c>
-      <c r="G37" s="27">
+      <c r="G37">
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="27">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38">
         <v>14</v>
       </c>
-      <c r="B38" s="27">
+      <c r="B38">
         <v>3.0977720095176222</v>
       </c>
-      <c r="C38" s="27">
+      <c r="C38">
         <v>1.9022279904823778</v>
       </c>
-      <c r="D38" s="27">
+      <c r="D38">
         <v>1.0642007848266006</v>
       </c>
-      <c r="F38" s="27">
+      <c r="F38">
         <v>15.168539325842698</v>
       </c>
-      <c r="G38" s="27">
+      <c r="G38">
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="27">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39">
         <v>15</v>
       </c>
-      <c r="B39" s="27">
+      <c r="B39">
         <v>3.0977720095176222</v>
       </c>
-      <c r="C39" s="27">
+      <c r="C39">
         <v>1.9022279904823778</v>
       </c>
-      <c r="D39" s="27">
+      <c r="D39">
         <v>1.0642007848266006</v>
       </c>
-      <c r="F39" s="27">
+      <c r="F39">
         <v>16.292134831460675</v>
       </c>
-      <c r="G39" s="27">
+      <c r="G39">
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="27">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40">
         <v>16</v>
       </c>
-      <c r="B40" s="27">
+      <c r="B40">
         <v>3.0977720095176222</v>
       </c>
-      <c r="C40" s="27">
+      <c r="C40">
         <v>1.9022279904823778</v>
       </c>
-      <c r="D40" s="27">
+      <c r="D40">
         <v>1.0642007848266006</v>
       </c>
-      <c r="F40" s="27">
+      <c r="F40">
         <v>17.415730337078653</v>
       </c>
-      <c r="G40" s="27">
+      <c r="G40">
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="27">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41">
         <v>17</v>
       </c>
-      <c r="B41" s="27">
+      <c r="B41">
         <v>3.0977720095176222</v>
       </c>
-      <c r="C41" s="27">
+      <c r="C41">
         <v>1.9022279904823778</v>
       </c>
-      <c r="D41" s="27">
+      <c r="D41">
         <v>1.0642007848266006</v>
       </c>
-      <c r="F41" s="27">
+      <c r="F41">
         <v>18.539325842696631</v>
       </c>
-      <c r="G41" s="27">
+      <c r="G41">
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="27">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42">
         <v>18</v>
       </c>
-      <c r="B42" s="27">
+      <c r="B42">
         <v>3.0977720095176222</v>
       </c>
-      <c r="C42" s="27">
+      <c r="C42">
         <v>1.9022279904823778</v>
       </c>
-      <c r="D42" s="27">
+      <c r="D42">
         <v>1.0642007848266006</v>
       </c>
-      <c r="F42" s="27">
+      <c r="F42">
         <v>19.662921348314608</v>
       </c>
-      <c r="G42" s="27">
+      <c r="G42">
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="27">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43">
         <v>19</v>
       </c>
-      <c r="B43" s="27">
+      <c r="B43">
         <v>3.0977720095176222</v>
       </c>
-      <c r="C43" s="27">
+      <c r="C43">
         <v>1.9022279904823778</v>
       </c>
-      <c r="D43" s="27">
+      <c r="D43">
         <v>1.0642007848266006</v>
       </c>
-      <c r="F43" s="27">
+      <c r="F43">
         <v>20.786516853932586</v>
       </c>
-      <c r="G43" s="27">
+      <c r="G43">
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="27">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44">
         <v>20</v>
       </c>
-      <c r="B44" s="27">
+      <c r="B44">
         <v>3.0977720095176222</v>
       </c>
-      <c r="C44" s="27">
+      <c r="C44">
         <v>1.9022279904823778</v>
       </c>
-      <c r="D44" s="27">
+      <c r="D44">
         <v>1.0642007848266006</v>
       </c>
-      <c r="F44" s="27">
+      <c r="F44">
         <v>21.910112359550563</v>
       </c>
-      <c r="G44" s="27">
+      <c r="G44">
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="27">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45">
         <v>21</v>
       </c>
-      <c r="B45" s="27">
+      <c r="B45">
         <v>4.6335712740644581</v>
       </c>
-      <c r="C45" s="27">
+      <c r="C45">
         <v>-3.6335712740644581</v>
       </c>
-      <c r="D45" s="27">
+      <c r="D45">
         <v>-2.0328001800679054</v>
       </c>
-      <c r="F45" s="27">
+      <c r="F45">
         <v>23.033707865168541</v>
       </c>
-      <c r="G45" s="27">
+      <c r="G45">
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="27">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46">
         <v>22</v>
       </c>
-      <c r="B46" s="27">
+      <c r="B46">
         <v>4.6335712740644581</v>
       </c>
-      <c r="C46" s="27">
+      <c r="C46">
         <v>-3.6335712740644581</v>
       </c>
-      <c r="D46" s="27">
+      <c r="D46">
         <v>-2.0328001800679054</v>
       </c>
-      <c r="F46" s="27">
+      <c r="F46">
         <v>24.157303370786519</v>
       </c>
-      <c r="G46" s="27">
+      <c r="G46">
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="27">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47">
         <v>23</v>
       </c>
-      <c r="B47" s="27">
+      <c r="B47">
         <v>4.6335712740644581</v>
       </c>
-      <c r="C47" s="27">
+      <c r="C47">
         <v>-1.6335712740644581</v>
       </c>
-      <c r="D47" s="27">
+      <c r="D47">
         <v>-0.91390087866846115</v>
       </c>
-      <c r="F47" s="27">
+      <c r="F47">
         <v>25.280898876404496</v>
       </c>
-      <c r="G47" s="27">
+      <c r="G47">
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="27">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A48">
         <v>24</v>
       </c>
-      <c r="B48" s="27">
+      <c r="B48">
         <v>4.6335712740644581</v>
       </c>
-      <c r="C48" s="27">
+      <c r="C48">
         <v>-1.6335712740644581</v>
       </c>
-      <c r="D48" s="27">
+      <c r="D48">
         <v>-0.91390087866846115</v>
       </c>
-      <c r="F48" s="27">
+      <c r="F48">
         <v>26.404494382022474</v>
       </c>
-      <c r="G48" s="27">
+      <c r="G48">
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="27">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A49">
         <v>25</v>
       </c>
-      <c r="B49" s="27">
+      <c r="B49">
         <v>4.6335712740644581</v>
       </c>
-      <c r="C49" s="27">
+      <c r="C49">
         <v>-1.6335712740644581</v>
       </c>
-      <c r="D49" s="27">
+      <c r="D49">
         <v>-0.91390087866846115</v>
       </c>
-      <c r="F49" s="27">
+      <c r="F49">
         <v>27.528089887640451</v>
       </c>
-      <c r="G49" s="27">
+      <c r="G49">
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="27">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A50">
         <v>26</v>
       </c>
-      <c r="B50" s="27">
+      <c r="B50">
         <v>4.6335712740644581</v>
       </c>
-      <c r="C50" s="27">
+      <c r="C50">
         <v>-1.6335712740644581</v>
       </c>
-      <c r="D50" s="27">
+      <c r="D50">
         <v>-0.91390087866846115</v>
       </c>
-      <c r="F50" s="27">
+      <c r="F50">
         <v>28.651685393258429</v>
       </c>
-      <c r="G50" s="27">
+      <c r="G50">
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="27">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A51">
         <v>27</v>
       </c>
-      <c r="B51" s="27">
+      <c r="B51">
         <v>4.6335712740644581</v>
       </c>
-      <c r="C51" s="27">
+      <c r="C51">
         <v>-1.6335712740644581</v>
       </c>
-      <c r="D51" s="27">
+      <c r="D51">
         <v>-0.91390087866846115</v>
       </c>
-      <c r="F51" s="27">
+      <c r="F51">
         <v>29.775280898876407</v>
       </c>
-      <c r="G51" s="27">
+      <c r="G51">
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="27">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A52">
         <v>28</v>
       </c>
-      <c r="B52" s="27">
+      <c r="B52">
         <v>4.6335712740644581</v>
       </c>
-      <c r="C52" s="27">
+      <c r="C52">
         <v>-1.6335712740644581</v>
       </c>
-      <c r="D52" s="27">
+      <c r="D52">
         <v>-0.91390087866846115</v>
       </c>
-      <c r="F52" s="27">
+      <c r="F52">
         <v>30.898876404494384</v>
       </c>
-      <c r="G52" s="27">
+      <c r="G52">
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="27">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A53">
         <v>29</v>
       </c>
-      <c r="B53" s="27">
+      <c r="B53">
         <v>4.6335712740644581</v>
       </c>
-      <c r="C53" s="27">
+      <c r="C53">
         <v>-1.6335712740644581</v>
       </c>
-      <c r="D53" s="27">
+      <c r="D53">
         <v>-0.91390087866846115</v>
       </c>
-      <c r="F53" s="27">
+      <c r="F53">
         <v>32.022471910112358</v>
       </c>
-      <c r="G53" s="27">
+      <c r="G53">
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="27">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A54">
         <v>30</v>
       </c>
-      <c r="B54" s="27">
+      <c r="B54">
         <v>4.6335712740644581</v>
       </c>
-      <c r="C54" s="27">
+      <c r="C54">
         <v>-1.6335712740644581</v>
       </c>
-      <c r="D54" s="27">
+      <c r="D54">
         <v>-0.91390087866846115</v>
       </c>
-      <c r="F54" s="27">
+      <c r="F54">
         <v>33.146067415730343</v>
       </c>
-      <c r="G54" s="27">
+      <c r="G54">
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="27">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A55">
         <v>31</v>
       </c>
-      <c r="B55" s="27">
+      <c r="B55">
         <v>4.6335712740644581</v>
       </c>
-      <c r="C55" s="27">
+      <c r="C55">
         <v>-1.6335712740644581</v>
       </c>
-      <c r="D55" s="27">
+      <c r="D55">
         <v>-0.91390087866846115</v>
       </c>
-      <c r="F55" s="27">
+      <c r="F55">
         <v>34.269662921348313</v>
       </c>
-      <c r="G55" s="27">
+      <c r="G55">
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="27">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A56">
         <v>32</v>
       </c>
-      <c r="B56" s="27">
+      <c r="B56">
         <v>4.6335712740644581</v>
       </c>
-      <c r="C56" s="27">
+      <c r="C56">
         <v>-1.6335712740644581</v>
       </c>
-      <c r="D56" s="27">
+      <c r="D56">
         <v>-0.91390087866846115</v>
       </c>
-      <c r="F56" s="27">
+      <c r="F56">
         <v>35.393258426966298</v>
       </c>
-      <c r="G56" s="27">
+      <c r="G56">
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="27">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A57">
         <v>33</v>
       </c>
-      <c r="B57" s="27">
+      <c r="B57">
         <v>6.1693705386112931</v>
       </c>
-      <c r="C57" s="27">
+      <c r="C57">
         <v>-3.1693705386112931</v>
       </c>
-      <c r="D57" s="27">
+      <c r="D57">
         <v>-1.7731032407640781</v>
       </c>
-      <c r="F57" s="27">
+      <c r="F57">
         <v>36.516853932584269</v>
       </c>
-      <c r="G57" s="27">
+      <c r="G57">
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="27">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A58">
         <v>34</v>
       </c>
-      <c r="B58" s="27">
+      <c r="B58">
         <v>6.1693705386112931</v>
       </c>
-      <c r="C58" s="27">
+      <c r="C58">
         <v>-3.1693705386112931</v>
       </c>
-      <c r="D58" s="27">
+      <c r="D58">
         <v>-1.7731032407640781</v>
       </c>
-      <c r="F58" s="27">
+      <c r="F58">
         <v>37.640449438202253</v>
       </c>
-      <c r="G58" s="27">
+      <c r="G58">
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="27">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A59">
         <v>35</v>
       </c>
-      <c r="B59" s="27">
+      <c r="B59">
         <v>6.1693705386112931</v>
       </c>
-      <c r="C59" s="27">
+      <c r="C59">
         <v>-3.1693705386112931</v>
       </c>
-      <c r="D59" s="27">
+      <c r="D59">
         <v>-1.7731032407640781</v>
       </c>
-      <c r="F59" s="27">
+      <c r="F59">
         <v>38.764044943820224</v>
       </c>
-      <c r="G59" s="27">
+      <c r="G59">
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="27">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A60">
         <v>36</v>
       </c>
-      <c r="B60" s="27">
+      <c r="B60">
         <v>6.1693705386112931</v>
       </c>
-      <c r="C60" s="27">
+      <c r="C60">
         <v>-3.1693705386112931</v>
       </c>
-      <c r="D60" s="27">
+      <c r="D60">
         <v>-1.7731032407640781</v>
       </c>
-      <c r="F60" s="27">
+      <c r="F60">
         <v>39.887640449438209</v>
       </c>
-      <c r="G60" s="27">
+      <c r="G60">
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="27">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A61">
         <v>37</v>
       </c>
-      <c r="B61" s="27">
+      <c r="B61">
         <v>6.1693705386112931</v>
       </c>
-      <c r="C61" s="27">
+      <c r="C61">
         <v>-3.1693705386112931</v>
       </c>
-      <c r="D61" s="27">
+      <c r="D61">
         <v>-1.7731032407640781</v>
       </c>
-      <c r="F61" s="27">
+      <c r="F61">
         <v>41.011235955056179</v>
       </c>
-      <c r="G61" s="27">
+      <c r="G61">
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="27">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A62">
         <v>38</v>
       </c>
-      <c r="B62" s="27">
+      <c r="B62">
         <v>6.1693705386112931</v>
       </c>
-      <c r="C62" s="27">
+      <c r="C62">
         <v>-3.1693705386112931</v>
       </c>
-      <c r="D62" s="27">
+      <c r="D62">
         <v>-1.7731032407640781</v>
       </c>
-      <c r="F62" s="27">
+      <c r="F62">
         <v>42.134831460674164</v>
       </c>
-      <c r="G62" s="27">
+      <c r="G62">
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="27">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A63">
         <v>39</v>
       </c>
-      <c r="B63" s="27">
+      <c r="B63">
         <v>6.1693705386112931</v>
       </c>
-      <c r="C63" s="27">
+      <c r="C63">
         <v>-1.1693705386112931</v>
       </c>
-      <c r="D63" s="27">
+      <c r="D63">
         <v>-0.65420393936463384</v>
       </c>
-      <c r="F63" s="27">
+      <c r="F63">
         <v>43.258426966292134</v>
       </c>
-      <c r="G63" s="27">
+      <c r="G63">
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="27">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A64">
         <v>40</v>
       </c>
-      <c r="B64" s="27">
+      <c r="B64">
         <v>6.1693705386112931</v>
       </c>
-      <c r="C64" s="27">
+      <c r="C64">
         <v>-1.1693705386112931</v>
       </c>
-      <c r="D64" s="27">
+      <c r="D64">
         <v>-0.65420393936463384</v>
       </c>
-      <c r="F64" s="27">
+      <c r="F64">
         <v>44.382022471910119</v>
       </c>
-      <c r="G64" s="27">
+      <c r="G64">
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="27">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A65">
         <v>41</v>
       </c>
-      <c r="B65" s="27">
+      <c r="B65">
         <v>6.1693705386112931</v>
       </c>
-      <c r="C65" s="27">
+      <c r="C65">
         <v>-1.1693705386112931</v>
       </c>
-      <c r="D65" s="27">
+      <c r="D65">
         <v>-0.65420393936463384</v>
       </c>
-      <c r="F65" s="27">
+      <c r="F65">
         <v>45.50561797752809</v>
       </c>
-      <c r="G65" s="27">
+      <c r="G65">
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="27">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A66">
         <v>42</v>
       </c>
-      <c r="B66" s="27">
+      <c r="B66">
         <v>6.1693705386112931</v>
       </c>
-      <c r="C66" s="27">
+      <c r="C66">
         <v>-1.1693705386112931</v>
       </c>
-      <c r="D66" s="27">
+      <c r="D66">
         <v>-0.65420393936463384</v>
       </c>
-      <c r="F66" s="27">
+      <c r="F66">
         <v>46.629213483146074</v>
       </c>
-      <c r="G66" s="27">
+      <c r="G66">
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="27">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A67">
         <v>43</v>
       </c>
-      <c r="B67" s="27">
+      <c r="B67">
         <v>6.1693705386112931</v>
       </c>
-      <c r="C67" s="27">
+      <c r="C67">
         <v>-1.1693705386112931</v>
       </c>
-      <c r="D67" s="27">
+      <c r="D67">
         <v>-0.65420393936463384</v>
       </c>
-      <c r="F67" s="27">
+      <c r="F67">
         <v>47.752808988764045</v>
       </c>
-      <c r="G67" s="27">
+      <c r="G67">
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="27">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A68">
         <v>44</v>
       </c>
-      <c r="B68" s="27">
+      <c r="B68">
         <v>6.1693705386112931</v>
       </c>
-      <c r="C68" s="27">
+      <c r="C68">
         <v>-1.1693705386112931</v>
       </c>
-      <c r="D68" s="27">
+      <c r="D68">
         <v>-0.65420393936463384</v>
       </c>
-      <c r="F68" s="27">
+      <c r="F68">
         <v>48.876404494382029</v>
       </c>
-      <c r="G68" s="27">
+      <c r="G68">
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="27">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A69">
         <v>45</v>
       </c>
-      <c r="B69" s="27">
+      <c r="B69">
         <v>6.1693705386112931</v>
       </c>
-      <c r="C69" s="27">
+      <c r="C69">
         <v>-1.1693705386112931</v>
       </c>
-      <c r="D69" s="27">
+      <c r="D69">
         <v>-0.65420393936463384</v>
       </c>
-      <c r="F69" s="27">
+      <c r="F69">
         <v>50</v>
       </c>
-      <c r="G69" s="27">
+      <c r="G69">
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="27">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A70">
         <v>46</v>
       </c>
-      <c r="B70" s="27">
+      <c r="B70">
         <v>6.1693705386112931</v>
       </c>
-      <c r="C70" s="27">
+      <c r="C70">
         <v>-1.1693705386112931</v>
       </c>
-      <c r="D70" s="27">
+      <c r="D70">
         <v>-0.65420393936463384</v>
       </c>
-      <c r="F70" s="27">
+      <c r="F70">
         <v>51.123595505617985</v>
       </c>
-      <c r="G70" s="27">
+      <c r="G70">
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="27">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A71">
         <v>47</v>
       </c>
-      <c r="B71" s="27">
+      <c r="B71">
         <v>6.1693705386112931</v>
       </c>
-      <c r="C71" s="27">
+      <c r="C71">
         <v>-1.1693705386112931</v>
       </c>
-      <c r="D71" s="27">
+      <c r="D71">
         <v>-0.65420393936463384</v>
       </c>
-      <c r="F71" s="27">
+      <c r="F71">
         <v>52.247191011235955</v>
       </c>
-      <c r="G71" s="27">
+      <c r="G71">
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="27">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A72">
         <v>48</v>
       </c>
-      <c r="B72" s="27">
+      <c r="B72">
         <v>6.1693705386112931</v>
       </c>
-      <c r="C72" s="27">
+      <c r="C72">
         <v>-1.1693705386112931</v>
       </c>
-      <c r="D72" s="27">
+      <c r="D72">
         <v>-0.65420393936463384</v>
       </c>
-      <c r="F72" s="27">
+      <c r="F72">
         <v>53.37078651685394</v>
       </c>
-      <c r="G72" s="27">
+      <c r="G72">
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="27">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A73">
         <v>49</v>
       </c>
-      <c r="B73" s="27">
+      <c r="B73">
         <v>6.1693705386112931</v>
       </c>
-      <c r="C73" s="27">
+      <c r="C73">
         <v>0.83062946138870686</v>
       </c>
-      <c r="D73" s="27">
+      <c r="D73">
         <v>0.46469536203481038</v>
       </c>
-      <c r="F73" s="27">
+      <c r="F73">
         <v>54.49438202247191</v>
       </c>
-      <c r="G73" s="27">
+      <c r="G73">
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="27">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A74">
         <v>50</v>
       </c>
-      <c r="B74" s="27">
+      <c r="B74">
         <v>6.1693705386112931</v>
       </c>
-      <c r="C74" s="27">
+      <c r="C74">
         <v>0.83062946138870686</v>
       </c>
-      <c r="D74" s="27">
+      <c r="D74">
         <v>0.46469536203481038</v>
       </c>
-      <c r="F74" s="27">
+      <c r="F74">
         <v>55.617977528089895</v>
       </c>
-      <c r="G74" s="27">
+      <c r="G74">
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="27">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A75">
         <v>51</v>
       </c>
-      <c r="B75" s="27">
+      <c r="B75">
         <v>6.1693705386112931</v>
       </c>
-      <c r="C75" s="27">
+      <c r="C75">
         <v>0.83062946138870686</v>
       </c>
-      <c r="D75" s="27">
+      <c r="D75">
         <v>0.46469536203481038</v>
       </c>
-      <c r="F75" s="27">
+      <c r="F75">
         <v>56.741573033707866</v>
       </c>
-      <c r="G75" s="27">
+      <c r="G75">
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="27">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A76">
         <v>52</v>
       </c>
-      <c r="B76" s="27">
+      <c r="B76">
         <v>6.1693705386112931</v>
       </c>
-      <c r="C76" s="27">
+      <c r="C76">
         <v>0.83062946138870686</v>
       </c>
-      <c r="D76" s="27">
+      <c r="D76">
         <v>0.46469536203481038</v>
       </c>
-      <c r="F76" s="27">
+      <c r="F76">
         <v>57.86516853932585</v>
       </c>
-      <c r="G76" s="27">
+      <c r="G76">
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="27">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A77">
         <v>53</v>
       </c>
-      <c r="B77" s="27">
+      <c r="B77">
         <v>6.1693705386112931</v>
       </c>
-      <c r="C77" s="27">
+      <c r="C77">
         <v>0.83062946138870686</v>
       </c>
-      <c r="D77" s="27">
+      <c r="D77">
         <v>0.46469536203481038</v>
       </c>
-      <c r="F77" s="27">
+      <c r="F77">
         <v>58.988764044943821</v>
       </c>
-      <c r="G77" s="27">
+      <c r="G77">
         <v>7</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="27">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A78">
         <v>54</v>
       </c>
-      <c r="B78" s="27">
+      <c r="B78">
         <v>6.1693705386112931</v>
       </c>
-      <c r="C78" s="27">
+      <c r="C78">
         <v>0.83062946138870686</v>
       </c>
-      <c r="D78" s="27">
+      <c r="D78">
         <v>0.46469536203481038</v>
       </c>
-      <c r="F78" s="27">
+      <c r="F78">
         <v>60.112359550561806</v>
       </c>
-      <c r="G78" s="27">
+      <c r="G78">
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="27">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A79">
         <v>55</v>
       </c>
-      <c r="B79" s="27">
+      <c r="B79">
         <v>6.1693705386112931</v>
       </c>
-      <c r="C79" s="27">
+      <c r="C79">
         <v>0.83062946138870686</v>
       </c>
-      <c r="D79" s="27">
+      <c r="D79">
         <v>0.46469536203481038</v>
       </c>
-      <c r="F79" s="27">
+      <c r="F79">
         <v>61.235955056179776</v>
       </c>
-      <c r="G79" s="27">
+      <c r="G79">
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="27">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A80">
         <v>56</v>
       </c>
-      <c r="B80" s="27">
+      <c r="B80">
         <v>6.1693705386112931</v>
       </c>
-      <c r="C80" s="27">
+      <c r="C80">
         <v>0.83062946138870686</v>
       </c>
-      <c r="D80" s="27">
+      <c r="D80">
         <v>0.46469536203481038</v>
       </c>
-      <c r="F80" s="27">
+      <c r="F80">
         <v>62.359550561797761</v>
       </c>
-      <c r="G80" s="27">
+      <c r="G80">
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="27">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A81">
         <v>57</v>
       </c>
-      <c r="B81" s="27">
+      <c r="B81">
         <v>6.1693705386112931</v>
       </c>
-      <c r="C81" s="27">
+      <c r="C81">
         <v>0.83062946138870686</v>
       </c>
-      <c r="D81" s="27">
+      <c r="D81">
         <v>0.46469536203481038</v>
       </c>
-      <c r="F81" s="27">
+      <c r="F81">
         <v>63.483146067415731</v>
       </c>
-      <c r="G81" s="27">
+      <c r="G81">
         <v>7</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="27">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A82">
         <v>58</v>
       </c>
-      <c r="B82" s="27">
+      <c r="B82">
         <v>6.1693705386112931</v>
       </c>
-      <c r="C82" s="27">
+      <c r="C82">
         <v>2.8306294613887069</v>
       </c>
-      <c r="D82" s="27">
+      <c r="D82">
         <v>1.5835946634342546</v>
       </c>
-      <c r="F82" s="27">
+      <c r="F82">
         <v>64.606741573033702</v>
       </c>
-      <c r="G82" s="27">
+      <c r="G82">
         <v>7</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="27">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A83">
         <v>59</v>
       </c>
-      <c r="B83" s="27">
+      <c r="B83">
         <v>6.1693705386112931</v>
       </c>
-      <c r="C83" s="27">
+      <c r="C83">
         <v>2.8306294613887069</v>
       </c>
-      <c r="D83" s="27">
+      <c r="D83">
         <v>1.5835946634342546</v>
       </c>
-      <c r="F83" s="27">
+      <c r="F83">
         <v>65.730337078651687</v>
       </c>
-      <c r="G83" s="27">
+      <c r="G83">
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="27">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A84">
         <v>60</v>
       </c>
-      <c r="B84" s="27">
+      <c r="B84">
         <v>6.1693705386112931</v>
       </c>
-      <c r="C84" s="27">
+      <c r="C84">
         <v>2.8306294613887069</v>
       </c>
-      <c r="D84" s="27">
+      <c r="D84">
         <v>1.5835946634342546</v>
       </c>
-      <c r="F84" s="27">
+      <c r="F84">
         <v>66.853932584269671</v>
       </c>
-      <c r="G84" s="27">
+      <c r="G84">
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="27">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A85">
         <v>61</v>
       </c>
-      <c r="B85" s="27">
+      <c r="B85">
         <v>6.1693705386112931</v>
       </c>
-      <c r="C85" s="27">
+      <c r="C85">
         <v>2.8306294613887069</v>
       </c>
-      <c r="D85" s="27">
+      <c r="D85">
         <v>1.5835946634342546</v>
       </c>
-      <c r="F85" s="27">
+      <c r="F85">
         <v>67.977528089887642</v>
       </c>
-      <c r="G85" s="27">
+      <c r="G85">
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="27">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A86">
         <v>62</v>
       </c>
-      <c r="B86" s="27">
+      <c r="B86">
         <v>6.1693705386112931</v>
       </c>
-      <c r="C86" s="27">
+      <c r="C86">
         <v>2.8306294613887069</v>
       </c>
-      <c r="D86" s="27">
+      <c r="D86">
         <v>1.5835946634342546</v>
       </c>
-      <c r="F86" s="27">
+      <c r="F86">
         <v>69.101123595505612</v>
       </c>
-      <c r="G86" s="27">
+      <c r="G86">
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="27">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A87">
         <v>63</v>
       </c>
-      <c r="B87" s="27">
+      <c r="B87">
         <v>6.1693705386112931</v>
       </c>
-      <c r="C87" s="27">
+      <c r="C87">
         <v>2.8306294613887069</v>
       </c>
-      <c r="D87" s="27">
+      <c r="D87">
         <v>1.5835946634342546</v>
       </c>
-      <c r="F87" s="27">
+      <c r="F87">
         <v>70.224719101123597</v>
       </c>
-      <c r="G87" s="27">
+      <c r="G87">
         <v>7</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="27">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A88">
         <v>64</v>
       </c>
-      <c r="B88" s="27">
+      <c r="B88">
         <v>6.1693705386112931</v>
       </c>
-      <c r="C88" s="27">
+      <c r="C88">
         <v>2.8306294613887069</v>
       </c>
-      <c r="D88" s="27">
+      <c r="D88">
         <v>1.5835946634342546</v>
       </c>
-      <c r="F88" s="27">
+      <c r="F88">
         <v>71.348314606741582</v>
       </c>
-      <c r="G88" s="27">
+      <c r="G88">
         <v>7</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="27">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A89">
         <v>65</v>
       </c>
-      <c r="B89" s="27">
+      <c r="B89">
         <v>6.1693705386112931</v>
       </c>
-      <c r="C89" s="27">
+      <c r="C89">
         <v>2.8306294613887069</v>
       </c>
-      <c r="D89" s="27">
+      <c r="D89">
         <v>1.5835946634342546</v>
       </c>
-      <c r="F89" s="27">
+      <c r="F89">
         <v>72.471910112359552</v>
       </c>
-      <c r="G89" s="27">
+      <c r="G89">
         <v>7</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="27">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A90">
         <v>66</v>
       </c>
-      <c r="B90" s="27">
+      <c r="B90">
         <v>6.1693705386112931</v>
       </c>
-      <c r="C90" s="27">
+      <c r="C90">
         <v>2.8306294613887069</v>
       </c>
-      <c r="D90" s="27">
+      <c r="D90">
         <v>1.5835946634342546</v>
       </c>
-      <c r="F90" s="27">
+      <c r="F90">
         <v>73.595505617977523</v>
       </c>
-      <c r="G90" s="27">
+      <c r="G90">
         <v>7</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="27">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A91">
         <v>67</v>
       </c>
-      <c r="B91" s="27">
+      <c r="B91">
         <v>6.1693705386112931</v>
       </c>
-      <c r="C91" s="27">
+      <c r="C91">
         <v>2.8306294613887069</v>
       </c>
-      <c r="D91" s="27">
+      <c r="D91">
         <v>1.5835946634342546</v>
       </c>
-      <c r="F91" s="27">
+      <c r="F91">
         <v>74.719101123595507</v>
       </c>
-      <c r="G91" s="27">
+      <c r="G91">
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="27">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A92">
         <v>68</v>
       </c>
-      <c r="B92" s="27">
+      <c r="B92">
         <v>7.7051698031581282</v>
       </c>
-      <c r="C92" s="27">
+      <c r="C92">
         <v>-2.7051698031581282</v>
       </c>
-      <c r="D92" s="27">
+      <c r="D92">
         <v>-1.5134063014602508</v>
       </c>
-      <c r="F92" s="27">
+      <c r="F92">
         <v>75.842696629213492</v>
       </c>
-      <c r="G92" s="27">
+      <c r="G92">
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="27">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A93">
         <v>69</v>
       </c>
-      <c r="B93" s="27">
+      <c r="B93">
         <v>7.7051698031581282</v>
       </c>
-      <c r="C93" s="27">
+      <c r="C93">
         <v>-2.7051698031581282</v>
       </c>
-      <c r="D93" s="27">
+      <c r="D93">
         <v>-1.5134063014602508</v>
       </c>
-      <c r="F93" s="27">
+      <c r="F93">
         <v>76.966292134831463</v>
       </c>
-      <c r="G93" s="27">
+      <c r="G93">
         <v>9</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="27">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A94">
         <v>70</v>
       </c>
-      <c r="B94" s="27">
+      <c r="B94">
         <v>7.7051698031581282</v>
       </c>
-      <c r="C94" s="27">
+      <c r="C94">
         <v>-0.70516980315812816</v>
       </c>
-      <c r="D94" s="27">
+      <c r="D94">
         <v>-0.39450700006080658</v>
       </c>
-      <c r="F94" s="27">
+      <c r="F94">
         <v>78.089887640449433</v>
       </c>
-      <c r="G94" s="27">
+      <c r="G94">
         <v>9</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="27">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A95">
         <v>71</v>
       </c>
-      <c r="B95" s="27">
+      <c r="B95">
         <v>7.7051698031581282</v>
       </c>
-      <c r="C95" s="27">
+      <c r="C95">
         <v>-0.70516980315812816</v>
       </c>
-      <c r="D95" s="27">
+      <c r="D95">
         <v>-0.39450700006080658</v>
       </c>
-      <c r="F95" s="27">
+      <c r="F95">
         <v>79.213483146067418</v>
       </c>
-      <c r="G95" s="27">
+      <c r="G95">
         <v>9</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="27">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A96">
         <v>72</v>
       </c>
-      <c r="B96" s="27">
+      <c r="B96">
         <v>7.7051698031581282</v>
       </c>
-      <c r="C96" s="27">
+      <c r="C96">
         <v>-0.70516980315812816</v>
       </c>
-      <c r="D96" s="27">
+      <c r="D96">
         <v>-0.39450700006080658</v>
       </c>
-      <c r="F96" s="27">
+      <c r="F96">
         <v>80.337078651685403</v>
       </c>
-      <c r="G96" s="27">
+      <c r="G96">
         <v>9</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="27">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A97">
         <v>73</v>
       </c>
-      <c r="B97" s="27">
+      <c r="B97">
         <v>7.7051698031581282</v>
       </c>
-      <c r="C97" s="27">
+      <c r="C97">
         <v>-0.70516980315812816</v>
       </c>
-      <c r="D97" s="27">
+      <c r="D97">
         <v>-0.39450700006080658</v>
       </c>
-      <c r="F97" s="27">
+      <c r="F97">
         <v>81.460674157303373</v>
       </c>
-      <c r="G97" s="27">
+      <c r="G97">
         <v>9</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="27">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A98">
         <v>74</v>
       </c>
-      <c r="B98" s="27">
+      <c r="B98">
         <v>7.7051698031581282</v>
       </c>
-      <c r="C98" s="27">
+      <c r="C98">
         <v>-0.70516980315812816</v>
       </c>
-      <c r="D98" s="27">
+      <c r="D98">
         <v>-0.39450700006080658</v>
       </c>
-      <c r="F98" s="27">
+      <c r="F98">
         <v>82.584269662921344</v>
       </c>
-      <c r="G98" s="27">
+      <c r="G98">
         <v>9</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="27">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A99">
         <v>75</v>
       </c>
-      <c r="B99" s="27">
+      <c r="B99">
         <v>7.7051698031581282</v>
       </c>
-      <c r="C99" s="27">
+      <c r="C99">
         <v>-0.70516980315812816</v>
       </c>
-      <c r="D99" s="27">
+      <c r="D99">
         <v>-0.39450700006080658</v>
       </c>
-      <c r="F99" s="27">
+      <c r="F99">
         <v>83.707865168539328</v>
       </c>
-      <c r="G99" s="27">
+      <c r="G99">
         <v>9</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="27">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A100">
         <v>76</v>
       </c>
-      <c r="B100" s="27">
+      <c r="B100">
         <v>7.7051698031581282</v>
       </c>
-      <c r="C100" s="27">
+      <c r="C100">
         <v>-0.70516980315812816</v>
       </c>
-      <c r="D100" s="27">
+      <c r="D100">
         <v>-0.39450700006080658</v>
       </c>
-      <c r="F100" s="27">
+      <c r="F100">
         <v>84.831460674157313</v>
       </c>
-      <c r="G100" s="27">
+      <c r="G100">
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="27">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A101">
         <v>77</v>
       </c>
-      <c r="B101" s="27">
+      <c r="B101">
         <v>7.7051698031581282</v>
       </c>
-      <c r="C101" s="27">
+      <c r="C101">
         <v>-0.70516980315812816</v>
       </c>
-      <c r="D101" s="27">
+      <c r="D101">
         <v>-0.39450700006080658</v>
       </c>
-      <c r="F101" s="27">
+      <c r="F101">
         <v>85.955056179775283</v>
       </c>
-      <c r="G101" s="27">
+      <c r="G101">
         <v>9</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="27">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A102">
         <v>78</v>
       </c>
-      <c r="B102" s="27">
+      <c r="B102">
         <v>7.7051698031581282</v>
       </c>
-      <c r="C102" s="27">
+      <c r="C102">
         <v>1.2948301968418718</v>
       </c>
-      <c r="D102" s="27">
+      <c r="D102">
         <v>0.72439230133863763</v>
       </c>
-      <c r="F102" s="27">
+      <c r="F102">
         <v>87.078651685393254</v>
       </c>
-      <c r="G102" s="27">
+      <c r="G102">
         <v>9</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="27">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A103">
         <v>79</v>
       </c>
-      <c r="B103" s="27">
+      <c r="B103">
         <v>7.7051698031581282</v>
       </c>
-      <c r="C103" s="27">
+      <c r="C103">
         <v>1.2948301968418718</v>
       </c>
-      <c r="D103" s="27">
+      <c r="D103">
         <v>0.72439230133863763</v>
       </c>
-      <c r="F103" s="27">
+      <c r="F103">
         <v>88.202247191011239</v>
       </c>
-      <c r="G103" s="27">
+      <c r="G103">
         <v>9</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="27">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A104">
         <v>80</v>
       </c>
-      <c r="B104" s="27">
+      <c r="B104">
         <v>7.7051698031581282</v>
       </c>
-      <c r="C104" s="27">
+      <c r="C104">
         <v>1.2948301968418718</v>
       </c>
-      <c r="D104" s="27">
+      <c r="D104">
         <v>0.72439230133863763</v>
       </c>
-      <c r="F104" s="27">
+      <c r="F104">
         <v>89.325842696629223</v>
       </c>
-      <c r="G104" s="27">
+      <c r="G104">
         <v>9</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="27">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A105">
         <v>81</v>
       </c>
-      <c r="B105" s="27">
+      <c r="B105">
         <v>7.7051698031581282</v>
       </c>
-      <c r="C105" s="27">
+      <c r="C105">
         <v>1.2948301968418718</v>
       </c>
-      <c r="D105" s="27">
+      <c r="D105">
         <v>0.72439230133863763</v>
       </c>
-      <c r="F105" s="27">
+      <c r="F105">
         <v>90.449438202247194</v>
       </c>
-      <c r="G105" s="27">
+      <c r="G105">
         <v>9</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" s="27">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A106">
         <v>82</v>
       </c>
-      <c r="B106" s="27">
+      <c r="B106">
         <v>7.7051698031581282</v>
       </c>
-      <c r="C106" s="27">
+      <c r="C106">
         <v>1.2948301968418718</v>
       </c>
-      <c r="D106" s="27">
+      <c r="D106">
         <v>0.72439230133863763</v>
       </c>
-      <c r="F106" s="27">
+      <c r="F106">
         <v>91.573033707865164</v>
       </c>
-      <c r="G106" s="27">
+      <c r="G106">
         <v>9</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="27">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A107">
         <v>83</v>
       </c>
-      <c r="B107" s="27">
+      <c r="B107">
         <v>7.7051698031581282</v>
       </c>
-      <c r="C107" s="27">
+      <c r="C107">
         <v>1.2948301968418718</v>
       </c>
-      <c r="D107" s="27">
+      <c r="D107">
         <v>0.72439230133863763</v>
       </c>
-      <c r="F107" s="27">
+      <c r="F107">
         <v>92.696629213483149</v>
       </c>
-      <c r="G107" s="27">
+      <c r="G107">
         <v>9</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" s="27">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A108">
         <v>84</v>
       </c>
-      <c r="B108" s="27">
+      <c r="B108">
         <v>7.7051698031581282</v>
       </c>
-      <c r="C108" s="27">
+      <c r="C108">
         <v>1.2948301968418718</v>
       </c>
-      <c r="D108" s="27">
+      <c r="D108">
         <v>0.72439230133863763</v>
       </c>
-      <c r="F108" s="27">
+      <c r="F108">
         <v>93.820224719101134</v>
       </c>
-      <c r="G108" s="27">
+      <c r="G108">
         <v>9</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" s="27">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A109">
         <v>85</v>
       </c>
-      <c r="B109" s="27">
+      <c r="B109">
         <v>7.7051698031581282</v>
       </c>
-      <c r="C109" s="27">
+      <c r="C109">
         <v>1.2948301968418718</v>
       </c>
-      <c r="D109" s="27">
+      <c r="D109">
         <v>0.72439230133863763</v>
       </c>
-      <c r="F109" s="27">
+      <c r="F109">
         <v>94.943820224719104</v>
       </c>
-      <c r="G109" s="27">
+      <c r="G109">
         <v>9</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" s="27">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A110">
         <v>86</v>
       </c>
-      <c r="B110" s="27">
+      <c r="B110">
         <v>7.7051698031581282</v>
       </c>
-      <c r="C110" s="27">
+      <c r="C110">
         <v>1.2948301968418718</v>
       </c>
-      <c r="D110" s="27">
+      <c r="D110">
         <v>0.72439230133863763</v>
       </c>
-      <c r="F110" s="27">
+      <c r="F110">
         <v>96.067415730337075</v>
       </c>
-      <c r="G110" s="27">
+      <c r="G110">
         <v>9</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" s="27">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A111">
         <v>87</v>
       </c>
-      <c r="B111" s="27">
+      <c r="B111">
         <v>7.7051698031581282</v>
       </c>
-      <c r="C111" s="27">
+      <c r="C111">
         <v>1.2948301968418718</v>
       </c>
-      <c r="D111" s="27">
+      <c r="D111">
         <v>0.72439230133863763</v>
       </c>
-      <c r="F111" s="27">
+      <c r="F111">
         <v>97.19101123595506</v>
       </c>
-      <c r="G111" s="27">
+      <c r="G111">
         <v>9</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" s="27">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A112">
         <v>88</v>
       </c>
-      <c r="B112" s="27">
+      <c r="B112">
         <v>7.7051698031581282</v>
       </c>
-      <c r="C112" s="27">
+      <c r="C112">
         <v>1.2948301968418718</v>
       </c>
-      <c r="D112" s="27">
+      <c r="D112">
         <v>0.72439230133863763</v>
       </c>
-      <c r="F112" s="27">
+      <c r="F112">
         <v>98.314606741573044</v>
       </c>
-      <c r="G112" s="27">
+      <c r="G112">
         <v>9</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="28">
+    <row r="113" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A113" s="15">
         <v>89</v>
       </c>
-      <c r="B113" s="28">
+      <c r="B113" s="15">
         <v>7.7051698031581282</v>
       </c>
-      <c r="C113" s="28">
+      <c r="C113" s="15">
         <v>1.2948301968418718</v>
       </c>
-      <c r="D113" s="28">
+      <c r="D113" s="15">
         <v>0.72439230133863763</v>
       </c>
-      <c r="F113" s="28">
+      <c r="F113" s="15">
         <v>99.438202247191015</v>
       </c>
-      <c r="G113" s="28">
+      <c r="G113" s="15">
         <v>9</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="G25:G113">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G25:G113">
     <sortCondition ref="G25"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6635,20 +7163,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E90"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="20" max="20" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="12.453125" customWidth="1"/>
+    <col min="20" max="20" width="16.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6665,7 +7193,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>20</v>
       </c>
@@ -6682,7 +7210,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>20</v>
       </c>
@@ -6699,7 +7227,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>30</v>
       </c>
@@ -6716,7 +7244,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>30</v>
       </c>
@@ -6733,7 +7261,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>40</v>
       </c>
@@ -6750,7 +7278,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>40</v>
       </c>
@@ -6767,7 +7295,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>40</v>
       </c>
@@ -6784,7 +7312,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>40</v>
       </c>
@@ -6801,7 +7329,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>50</v>
       </c>
@@ -6818,7 +7346,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>50</v>
       </c>
@@ -6835,7 +7363,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>50</v>
       </c>
@@ -6852,7 +7380,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
       <c r="E13">
         <v>20</v>
       </c>
@@ -6860,7 +7388,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
       <c r="E14">
         <v>20</v>
       </c>
@@ -6868,7 +7396,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
       <c r="E15">
         <v>20</v>
       </c>
@@ -6876,7 +7404,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E16">
         <v>20</v>
       </c>
@@ -6903,7 +7431,7 @@
       </c>
       <c r="Z16" s="5"/>
     </row>
-    <row r="17" spans="5:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:26" ht="15.5" x14ac:dyDescent="0.35">
       <c r="E17">
         <v>20</v>
       </c>
@@ -6933,7 +7461,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="5:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:26" ht="15.5" x14ac:dyDescent="0.35">
       <c r="E18">
         <v>20</v>
       </c>
@@ -6963,7 +7491,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="5:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:26" ht="15.5" x14ac:dyDescent="0.35">
       <c r="E19">
         <v>20</v>
       </c>
@@ -6993,7 +7521,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="5:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:26" ht="15.5" x14ac:dyDescent="0.35">
       <c r="E20">
         <v>20</v>
       </c>
@@ -7023,7 +7551,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="5:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:26" ht="15.5" x14ac:dyDescent="0.35">
       <c r="E21">
         <v>20</v>
       </c>
@@ -7051,12 +7579,12 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="Z21" s="9">
+      <c r="Z21" s="7">
         <f>SUM(U21:Y21)</f>
         <v>89</v>
       </c>
     </row>
-    <row r="22" spans="5:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="5:26" x14ac:dyDescent="0.35">
       <c r="E22">
         <v>30</v>
       </c>
@@ -7064,7 +7592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="5:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="5:26" x14ac:dyDescent="0.35">
       <c r="E23">
         <v>30</v>
       </c>
@@ -7072,7 +7600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="5:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="5:26" x14ac:dyDescent="0.35">
       <c r="E24">
         <v>30</v>
       </c>
@@ -7080,7 +7608,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="5:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="5:26" x14ac:dyDescent="0.35">
       <c r="E25">
         <v>30</v>
       </c>
@@ -7088,7 +7616,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="5:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="5:26" x14ac:dyDescent="0.35">
       <c r="E26">
         <v>30</v>
       </c>
@@ -7096,7 +7624,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="5:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="5:26" x14ac:dyDescent="0.35">
       <c r="E27">
         <v>30</v>
       </c>
@@ -7104,7 +7632,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="5:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="5:26" x14ac:dyDescent="0.35">
       <c r="E28">
         <v>30</v>
       </c>
@@ -7112,7 +7640,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="5:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="5:26" x14ac:dyDescent="0.35">
       <c r="E29">
         <v>30</v>
       </c>
@@ -7120,7 +7648,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="5:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="5:26" x14ac:dyDescent="0.35">
       <c r="E30">
         <v>30</v>
       </c>
@@ -7128,7 +7656,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="5:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="5:26" x14ac:dyDescent="0.35">
       <c r="E31">
         <v>30</v>
       </c>
@@ -7136,7 +7664,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="5:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="5:26" x14ac:dyDescent="0.35">
       <c r="E32">
         <v>30</v>
       </c>
@@ -7144,7 +7672,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E33">
         <v>30</v>
       </c>
@@ -7152,7 +7680,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E34">
         <v>40</v>
       </c>
@@ -7160,7 +7688,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E35">
         <v>40</v>
       </c>
@@ -7168,7 +7696,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E36">
         <v>40</v>
       </c>
@@ -7176,7 +7704,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E37">
         <v>40</v>
       </c>
@@ -7184,7 +7712,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E38">
         <v>40</v>
       </c>
@@ -7192,7 +7720,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E39">
         <v>40</v>
       </c>
@@ -7200,7 +7728,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E40">
         <v>40</v>
       </c>
@@ -7208,7 +7736,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E41">
         <v>40</v>
       </c>
@@ -7216,7 +7744,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E42">
         <v>40</v>
       </c>
@@ -7224,7 +7752,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E43">
         <v>40</v>
       </c>
@@ -7232,7 +7760,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E44">
         <v>40</v>
       </c>
@@ -7240,7 +7768,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E45">
         <v>40</v>
       </c>
@@ -7248,7 +7776,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E46">
         <v>40</v>
       </c>
@@ -7256,7 +7784,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E47">
         <v>40</v>
       </c>
@@ -7264,7 +7792,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E48">
         <v>40</v>
       </c>
@@ -7272,7 +7800,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E49">
         <v>40</v>
       </c>
@@ -7280,7 +7808,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E50">
         <v>40</v>
       </c>
@@ -7288,7 +7816,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E51">
         <v>40</v>
       </c>
@@ -7296,7 +7824,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E52">
         <v>40</v>
       </c>
@@ -7304,7 +7832,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E53">
         <v>40</v>
       </c>
@@ -7312,7 +7840,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E54">
         <v>40</v>
       </c>
@@ -7320,7 +7848,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E55">
         <v>40</v>
       </c>
@@ -7328,7 +7856,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E56">
         <v>40</v>
       </c>
@@ -7336,7 +7864,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E57">
         <v>40</v>
       </c>
@@ -7344,7 +7872,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E58">
         <v>40</v>
       </c>
@@ -7352,7 +7880,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E59">
         <v>40</v>
       </c>
@@ -7360,7 +7888,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E60">
         <v>40</v>
       </c>
@@ -7368,7 +7896,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E61">
         <v>40</v>
       </c>
@@ -7376,7 +7904,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E62">
         <v>40</v>
       </c>
@@ -7384,7 +7912,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E63">
         <v>40</v>
       </c>
@@ -7392,7 +7920,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E64">
         <v>40</v>
       </c>
@@ -7400,7 +7928,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E65">
         <v>40</v>
       </c>
@@ -7408,7 +7936,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E66">
         <v>40</v>
       </c>
@@ -7416,7 +7944,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E67">
         <v>40</v>
       </c>
@@ -7424,7 +7952,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E68">
         <v>40</v>
       </c>
@@ -7432,7 +7960,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E69">
         <v>50</v>
       </c>
@@ -7440,7 +7968,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E70">
         <v>50</v>
       </c>
@@ -7448,7 +7976,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E71">
         <v>50</v>
       </c>
@@ -7456,7 +7984,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E72">
         <v>50</v>
       </c>
@@ -7464,7 +7992,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E73">
         <v>50</v>
       </c>
@@ -7472,7 +8000,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E74">
         <v>50</v>
       </c>
@@ -7480,7 +8008,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="75" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E75">
         <v>50</v>
       </c>
@@ -7488,7 +8016,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E76">
         <v>50</v>
       </c>
@@ -7496,7 +8024,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E77">
         <v>50</v>
       </c>
@@ -7504,7 +8032,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="78" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E78">
         <v>50</v>
       </c>
@@ -7512,7 +8040,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E79">
         <v>50</v>
       </c>
@@ -7520,7 +8048,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="80" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E80">
         <v>50</v>
       </c>
@@ -7528,7 +8056,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E81">
         <v>50</v>
       </c>
@@ -7536,7 +8064,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="82" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E82">
         <v>50</v>
       </c>
@@ -7544,7 +8072,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E83">
         <v>50</v>
       </c>
@@ -7552,7 +8080,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E84">
         <v>50</v>
       </c>
@@ -7560,7 +8088,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E85">
         <v>50</v>
       </c>
@@ -7568,7 +8096,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E86">
         <v>50</v>
       </c>
@@ -7576,7 +8104,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E87">
         <v>50</v>
       </c>
@@ -7584,7 +8112,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="88" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E88">
         <v>50</v>
       </c>
@@ -7592,7 +8120,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E89">
         <v>50</v>
       </c>
@@ -7600,7 +8128,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E90">
         <v>50</v>
       </c>
